--- a/Brukerstøtte/AArsoppgave_dokumentasjon.xlsx
+++ b/Brukerstøtte/AArsoppgave_dokumentasjon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\GitHub\Kube_Timer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CubeTimer\Brukerstøtte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D252975-8BD2-4EE6-AFA4-F25059B0E44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70F9D2-C24D-42C4-84FD-BF21EB6E7847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44BE89D2-39F7-48B2-A6FC-9C3A312C447E}"/>
+    <workbookView xWindow="-15300" yWindow="168" windowWidth="17280" windowHeight="8964" xr2:uid="{44BE89D2-39F7-48B2-A6FC-9C3A312C447E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Brukernavn</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>olemio8282</t>
-  </si>
-  <si>
-    <t>mysql_secure_installation</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,12 +445,7 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
